--- a/data/CARBURANT/2024/RAPPORT-03-2024.xlsx
+++ b/data/CARBURANT/2024/RAPPORT-03-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/SOLUTIONDEV/projet_data/streamlit_test/data/CARBURANT/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CCC624-9C2D-ED4A-B185-D0B86E589925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC93D149-1A22-DC4A-8FB7-5BFCA8133FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="800" windowWidth="21380" windowHeight="15480" xr2:uid="{14694630-C95D-074E-89CF-4B6F1BD72D95}"/>
   </bookViews>
@@ -3536,7 +3536,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{84CC9569-F409-0642-851A-AD5F0530E79B}" name="Tableau1" displayName="Tableau1" ref="A1:J658" totalsRowShown="0" headerRowDxfId="50" tableBorderDxfId="49">
-  <autoFilter ref="A1:J658" xr:uid="{139B9277-A2BE-194A-9F50-C3EFE126BFBD}"/>
+  <autoFilter ref="A1:J658" xr:uid="{139B9277-A2BE-194A-9F50-C3EFE126BFBD}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="AA 967 JW"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{2E8B61E3-9614-D947-9020-107C12763D76}" name="N" dataDxfId="48"/>
     <tableColumn id="2" xr3:uid="{127070A8-EE8A-5446-8018-1AD2BBDB04E6}" name="Date" dataDxfId="47"/>
@@ -3886,8 +3892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139B9277-A2BE-194A-9F50-C3EFE126BFBD}">
   <dimension ref="A1:J658"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A586" sqref="A586:J655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3935,7 +3941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" hidden="1">
       <c r="A2">
         <v>3216</v>
       </c>
@@ -3967,7 +3973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" hidden="1">
       <c r="A3">
         <v>3217</v>
       </c>
@@ -3999,7 +4005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" hidden="1">
       <c r="A4">
         <v>3218</v>
       </c>
@@ -4031,7 +4037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" hidden="1">
       <c r="A5">
         <v>3219</v>
       </c>
@@ -4063,7 +4069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" hidden="1">
       <c r="A6">
         <v>3220</v>
       </c>
@@ -4095,7 +4101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" hidden="1">
       <c r="A7">
         <v>3221</v>
       </c>
@@ -4127,7 +4133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8">
         <v>3222</v>
       </c>
@@ -4159,7 +4165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9">
         <v>3223</v>
       </c>
@@ -4191,7 +4197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10">
         <v>3224</v>
       </c>
@@ -4223,7 +4229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" hidden="1">
       <c r="A11">
         <v>3225</v>
       </c>
@@ -4255,7 +4261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" hidden="1">
       <c r="A12">
         <v>3226</v>
       </c>
@@ -4287,7 +4293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" hidden="1">
       <c r="A13">
         <v>3227</v>
       </c>
@@ -4319,7 +4325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" hidden="1">
       <c r="A14">
         <v>3228</v>
       </c>
@@ -4351,7 +4357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" hidden="1">
       <c r="A15">
         <v>3229</v>
       </c>
@@ -4383,7 +4389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16">
         <v>3230</v>
       </c>
@@ -4415,7 +4421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" hidden="1">
       <c r="A17">
         <v>3231</v>
       </c>
@@ -4447,7 +4453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18">
         <v>3232</v>
       </c>
@@ -4479,7 +4485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19">
         <v>3233</v>
       </c>
@@ -4511,7 +4517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20">
         <v>3234</v>
       </c>
@@ -4543,7 +4549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21">
         <v>3235</v>
       </c>
@@ -4575,7 +4581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22">
         <v>3236</v>
       </c>
@@ -4607,7 +4613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23">
         <v>3237</v>
       </c>
@@ -4639,7 +4645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24">
         <v>3238</v>
       </c>
@@ -4671,7 +4677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25">
         <v>3239</v>
       </c>
@@ -4703,7 +4709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26">
         <v>3240</v>
       </c>
@@ -4735,7 +4741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" hidden="1">
       <c r="A27">
         <v>3241</v>
       </c>
@@ -4767,7 +4773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28">
         <v>3242</v>
       </c>
@@ -4799,7 +4805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29">
         <v>3243</v>
       </c>
@@ -4831,7 +4837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30">
         <v>3244</v>
       </c>
@@ -4863,7 +4869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31">
         <v>3245</v>
       </c>
@@ -4895,7 +4901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32">
         <v>3246</v>
       </c>
@@ -4927,7 +4933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33">
         <v>3247</v>
       </c>
@@ -4959,7 +4965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34">
         <v>3248</v>
       </c>
@@ -4991,7 +4997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35">
         <v>3249</v>
       </c>
@@ -5023,7 +5029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36">
         <v>3250</v>
       </c>
@@ -5055,7 +5061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37">
         <v>3251</v>
       </c>
@@ -5087,7 +5093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38">
         <v>3252</v>
       </c>
@@ -5119,7 +5125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" hidden="1">
       <c r="A39">
         <v>3253</v>
       </c>
@@ -5151,7 +5157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" hidden="1">
       <c r="A40">
         <v>3254</v>
       </c>
@@ -5183,7 +5189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41">
         <v>3255</v>
       </c>
@@ -5215,7 +5221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" hidden="1">
       <c r="A42">
         <v>3256</v>
       </c>
@@ -5247,7 +5253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43">
         <v>3257</v>
       </c>
@@ -5279,7 +5285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44">
         <v>3258</v>
       </c>
@@ -5311,7 +5317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45">
         <v>3259</v>
       </c>
@@ -5343,7 +5349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46">
         <v>3260</v>
       </c>
@@ -5375,7 +5381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47">
         <v>3261</v>
       </c>
@@ -5407,7 +5413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" hidden="1">
       <c r="A48">
         <v>3262</v>
       </c>
@@ -5439,7 +5445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49">
         <v>3263</v>
       </c>
@@ -5471,7 +5477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50">
         <v>3264</v>
       </c>
@@ -5503,7 +5509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51">
         <v>3265</v>
       </c>
@@ -5535,7 +5541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52">
         <v>3266</v>
       </c>
@@ -5567,7 +5573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" hidden="1">
       <c r="A53">
         <v>3267</v>
       </c>
@@ -5599,7 +5605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54">
         <v>3268</v>
       </c>
@@ -5631,7 +5637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55">
         <v>3269</v>
       </c>
@@ -5663,7 +5669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" hidden="1">
       <c r="A56">
         <v>3270</v>
       </c>
@@ -5695,7 +5701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" hidden="1">
       <c r="A57">
         <v>3271</v>
       </c>
@@ -5727,7 +5733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" hidden="1">
       <c r="A58">
         <v>3272</v>
       </c>
@@ -5759,7 +5765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" hidden="1">
       <c r="A59">
         <v>3273</v>
       </c>
@@ -5791,7 +5797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" hidden="1">
       <c r="A60">
         <v>3274</v>
       </c>
@@ -5823,7 +5829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" hidden="1">
       <c r="A61">
         <v>3275</v>
       </c>
@@ -5855,7 +5861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" hidden="1">
       <c r="A62">
         <v>3276</v>
       </c>
@@ -5887,7 +5893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" hidden="1">
       <c r="A63">
         <v>3277</v>
       </c>
@@ -5919,7 +5925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" hidden="1">
       <c r="A64">
         <v>3278</v>
       </c>
@@ -5951,7 +5957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" hidden="1">
       <c r="A65">
         <v>3279</v>
       </c>
@@ -5983,7 +5989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" hidden="1">
       <c r="A66">
         <v>3280</v>
       </c>
@@ -6015,7 +6021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" hidden="1">
       <c r="A67">
         <v>3281</v>
       </c>
@@ -6047,7 +6053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" hidden="1">
       <c r="A68">
         <v>3282</v>
       </c>
@@ -6079,7 +6085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" hidden="1">
       <c r="A69">
         <v>3283</v>
       </c>
@@ -6111,7 +6117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" hidden="1">
       <c r="A70">
         <v>3284</v>
       </c>
@@ -6143,7 +6149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" hidden="1">
       <c r="A71">
         <v>3285</v>
       </c>
@@ -6175,7 +6181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" hidden="1">
       <c r="A72">
         <v>3286</v>
       </c>
@@ -6207,7 +6213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" hidden="1">
       <c r="A73">
         <v>3287</v>
       </c>
@@ -6239,7 +6245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" hidden="1">
       <c r="A74">
         <v>3288</v>
       </c>
@@ -6271,7 +6277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" hidden="1">
       <c r="A75">
         <v>3289</v>
       </c>
@@ -6303,7 +6309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" hidden="1">
       <c r="A76">
         <v>3290</v>
       </c>
@@ -6335,7 +6341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" hidden="1">
       <c r="A77">
         <v>3291</v>
       </c>
@@ -6367,7 +6373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" hidden="1">
       <c r="A78">
         <v>3292</v>
       </c>
@@ -6399,7 +6405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" hidden="1">
       <c r="A79">
         <v>3293</v>
       </c>
@@ -6431,7 +6437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" hidden="1">
       <c r="A80">
         <v>3294</v>
       </c>
@@ -6463,7 +6469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" hidden="1">
       <c r="A81">
         <v>3295</v>
       </c>
@@ -6495,7 +6501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" hidden="1">
       <c r="A82">
         <v>3296</v>
       </c>
@@ -6527,7 +6533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" hidden="1">
       <c r="A83">
         <v>3297</v>
       </c>
@@ -6559,7 +6565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" hidden="1">
       <c r="A84">
         <v>3298</v>
       </c>
@@ -6591,7 +6597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" hidden="1">
       <c r="A85">
         <v>3299</v>
       </c>
@@ -6623,7 +6629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" hidden="1">
       <c r="A86">
         <v>3300</v>
       </c>
@@ -6655,7 +6661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" hidden="1">
       <c r="A87">
         <v>3301</v>
       </c>
@@ -6687,7 +6693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" hidden="1">
       <c r="A88">
         <v>3302</v>
       </c>
@@ -6719,7 +6725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" hidden="1">
       <c r="A89">
         <v>3303</v>
       </c>
@@ -6751,7 +6757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" hidden="1">
       <c r="A90">
         <v>3304</v>
       </c>
@@ -6783,7 +6789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" hidden="1">
       <c r="A91">
         <v>3305</v>
       </c>
@@ -6815,7 +6821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" hidden="1">
       <c r="A92">
         <v>3306</v>
       </c>
@@ -6847,7 +6853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" hidden="1">
       <c r="A93">
         <v>3307</v>
       </c>
@@ -6879,7 +6885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" hidden="1">
       <c r="A94">
         <v>3308</v>
       </c>
@@ -6911,7 +6917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" hidden="1">
       <c r="A95">
         <v>3309</v>
       </c>
@@ -6943,7 +6949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" hidden="1">
       <c r="A96">
         <v>3310</v>
       </c>
@@ -6975,7 +6981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" hidden="1">
       <c r="A97">
         <v>3311</v>
       </c>
@@ -7007,7 +7013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" hidden="1">
       <c r="A98">
         <v>3312</v>
       </c>
@@ -7039,7 +7045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" hidden="1">
       <c r="A99">
         <v>3313</v>
       </c>
@@ -7071,7 +7077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" hidden="1">
       <c r="A100">
         <v>3314</v>
       </c>
@@ -7103,7 +7109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" hidden="1">
       <c r="A101">
         <v>3315</v>
       </c>
@@ -7135,7 +7141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" hidden="1">
       <c r="A102">
         <v>3316</v>
       </c>
@@ -7167,7 +7173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" hidden="1">
       <c r="A103">
         <v>3317</v>
       </c>
@@ -7199,7 +7205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" hidden="1">
       <c r="A104">
         <v>3318</v>
       </c>
@@ -7231,7 +7237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" hidden="1">
       <c r="A105">
         <v>3319</v>
       </c>
@@ -7263,7 +7269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" hidden="1">
       <c r="A106">
         <v>3320</v>
       </c>
@@ -7295,7 +7301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" hidden="1">
       <c r="A107">
         <v>3321</v>
       </c>
@@ -7327,7 +7333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" hidden="1">
       <c r="A108">
         <v>3322</v>
       </c>
@@ -7359,7 +7365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" hidden="1">
       <c r="A109">
         <v>3323</v>
       </c>
@@ -7391,7 +7397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" hidden="1">
       <c r="A110">
         <v>3324</v>
       </c>
@@ -7423,7 +7429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" hidden="1">
       <c r="A111">
         <v>3325</v>
       </c>
@@ -7455,7 +7461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" hidden="1">
       <c r="A112">
         <v>3326</v>
       </c>
@@ -7487,7 +7493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" hidden="1">
       <c r="A113">
         <v>3327</v>
       </c>
@@ -7519,7 +7525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" hidden="1">
       <c r="A114">
         <v>3328</v>
       </c>
@@ -7551,7 +7557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" hidden="1">
       <c r="A115">
         <v>3329</v>
       </c>
@@ -7583,7 +7589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" hidden="1">
       <c r="A116">
         <v>3330</v>
       </c>
@@ -7615,7 +7621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" hidden="1">
       <c r="A117">
         <v>3331</v>
       </c>
@@ -7647,7 +7653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" hidden="1">
       <c r="A118">
         <v>3332</v>
       </c>
@@ -7679,7 +7685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" hidden="1">
       <c r="A119">
         <v>3333</v>
       </c>
@@ -7711,7 +7717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" hidden="1">
       <c r="A120">
         <v>3334</v>
       </c>
@@ -7743,7 +7749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" hidden="1">
       <c r="A121">
         <v>3335</v>
       </c>
@@ -7775,7 +7781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" hidden="1">
       <c r="A122">
         <v>3336</v>
       </c>
@@ -7807,7 +7813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" hidden="1">
       <c r="A123">
         <v>3337</v>
       </c>
@@ -7839,7 +7845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" hidden="1">
       <c r="A124">
         <v>3338</v>
       </c>
@@ -7871,7 +7877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" hidden="1">
       <c r="A125">
         <v>3339</v>
       </c>
@@ -7903,7 +7909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" hidden="1">
       <c r="A126">
         <v>3340</v>
       </c>
@@ -7935,7 +7941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" hidden="1">
       <c r="A127">
         <v>3341</v>
       </c>
@@ -7967,7 +7973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" hidden="1">
       <c r="A128">
         <v>3342</v>
       </c>
@@ -7999,7 +8005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" hidden="1">
       <c r="A129">
         <v>3343</v>
       </c>
@@ -8031,7 +8037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" hidden="1">
       <c r="A130">
         <v>3344</v>
       </c>
@@ -8063,7 +8069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" hidden="1">
       <c r="A131">
         <v>3345</v>
       </c>
@@ -8095,7 +8101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" hidden="1">
       <c r="A132">
         <v>3346</v>
       </c>
@@ -8127,7 +8133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" hidden="1">
       <c r="A133">
         <v>3347</v>
       </c>
@@ -8159,7 +8165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" hidden="1">
       <c r="A134">
         <v>3348</v>
       </c>
@@ -8191,7 +8197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" hidden="1">
       <c r="A135">
         <v>3349</v>
       </c>
@@ -8223,7 +8229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" hidden="1">
       <c r="A136">
         <v>3350</v>
       </c>
@@ -8255,7 +8261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" hidden="1">
       <c r="A137">
         <v>3351</v>
       </c>
@@ -8287,7 +8293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" hidden="1">
       <c r="A138">
         <v>3352</v>
       </c>
@@ -8319,7 +8325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" hidden="1">
       <c r="A139">
         <v>3353</v>
       </c>
@@ -8351,7 +8357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" hidden="1">
       <c r="A140">
         <v>3354</v>
       </c>
@@ -8383,7 +8389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" hidden="1">
       <c r="A141">
         <v>3355</v>
       </c>
@@ -8415,7 +8421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" hidden="1">
       <c r="A142">
         <v>3356</v>
       </c>
@@ -8447,7 +8453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" hidden="1">
       <c r="A143">
         <v>3357</v>
       </c>
@@ -8479,7 +8485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" hidden="1">
       <c r="A144">
         <v>3358</v>
       </c>
@@ -8511,7 +8517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" hidden="1">
       <c r="A145">
         <v>3359</v>
       </c>
@@ -8543,7 +8549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" hidden="1">
       <c r="A146">
         <v>3360</v>
       </c>
@@ -8575,7 +8581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" hidden="1">
       <c r="A147">
         <v>3361</v>
       </c>
@@ -8607,7 +8613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" hidden="1">
       <c r="A148">
         <v>3362</v>
       </c>
@@ -8639,7 +8645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" hidden="1">
       <c r="A149">
         <v>3363</v>
       </c>
@@ -8671,7 +8677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" hidden="1">
       <c r="A150">
         <v>3364</v>
       </c>
@@ -8703,7 +8709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" hidden="1">
       <c r="A151">
         <v>3365</v>
       </c>
@@ -8735,7 +8741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" hidden="1">
       <c r="A152">
         <v>3366</v>
       </c>
@@ -8767,7 +8773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" hidden="1">
       <c r="A153">
         <v>3367</v>
       </c>
@@ -8799,7 +8805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" hidden="1">
       <c r="A154">
         <v>3368</v>
       </c>
@@ -8831,7 +8837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" hidden="1">
       <c r="A155">
         <v>3369</v>
       </c>
@@ -8863,7 +8869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" hidden="1">
       <c r="A156">
         <v>3370</v>
       </c>
@@ -8895,7 +8901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" hidden="1">
       <c r="A157">
         <v>3371</v>
       </c>
@@ -8927,7 +8933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" hidden="1">
       <c r="A158">
         <v>3372</v>
       </c>
@@ -8959,7 +8965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" hidden="1">
       <c r="A159">
         <v>3373</v>
       </c>
@@ -8991,7 +8997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" hidden="1">
       <c r="A160">
         <v>3374</v>
       </c>
@@ -9023,7 +9029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" hidden="1">
       <c r="A161">
         <v>3375</v>
       </c>
@@ -9055,7 +9061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" hidden="1">
       <c r="A162">
         <v>3376</v>
       </c>
@@ -9087,7 +9093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" hidden="1">
       <c r="A163">
         <v>3377</v>
       </c>
@@ -9119,7 +9125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" hidden="1">
       <c r="A164">
         <v>3378</v>
       </c>
@@ -9151,7 +9157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" hidden="1">
       <c r="A165">
         <v>3379</v>
       </c>
@@ -9183,7 +9189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" hidden="1">
       <c r="A166">
         <v>3380</v>
       </c>
@@ -9215,7 +9221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" hidden="1">
       <c r="A167">
         <v>3381</v>
       </c>
@@ -9247,7 +9253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" hidden="1">
       <c r="A168">
         <v>3382</v>
       </c>
@@ -9279,7 +9285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" hidden="1">
       <c r="A169">
         <v>3383</v>
       </c>
@@ -9311,7 +9317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" hidden="1">
       <c r="A170">
         <v>3384</v>
       </c>
@@ -9343,7 +9349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" hidden="1">
       <c r="A171">
         <v>3385</v>
       </c>
@@ -9375,7 +9381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" hidden="1">
       <c r="A172">
         <v>3386</v>
       </c>
@@ -9407,7 +9413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" hidden="1">
       <c r="A173">
         <v>3387</v>
       </c>
@@ -9439,7 +9445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" hidden="1">
       <c r="A174">
         <v>3388</v>
       </c>
@@ -9471,7 +9477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" hidden="1">
       <c r="A175">
         <v>3389</v>
       </c>
@@ -9503,7 +9509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" hidden="1">
       <c r="A176">
         <v>3390</v>
       </c>
@@ -9535,7 +9541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" hidden="1">
       <c r="A177">
         <v>3391</v>
       </c>
@@ -9567,7 +9573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" hidden="1">
       <c r="A178">
         <v>3392</v>
       </c>
@@ -9599,7 +9605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" hidden="1">
       <c r="A179">
         <v>3393</v>
       </c>
@@ -9631,7 +9637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" hidden="1">
       <c r="A180">
         <v>3394</v>
       </c>
@@ -9663,7 +9669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" hidden="1">
       <c r="A181">
         <v>3395</v>
       </c>
@@ -9695,7 +9701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" hidden="1">
       <c r="A182">
         <v>3396</v>
       </c>
@@ -9727,7 +9733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" hidden="1">
       <c r="A183">
         <v>3397</v>
       </c>
@@ -9759,7 +9765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" hidden="1">
       <c r="A184">
         <v>3398</v>
       </c>
@@ -9791,7 +9797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" hidden="1">
       <c r="A185">
         <v>3399</v>
       </c>
@@ -9823,7 +9829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" hidden="1">
       <c r="A186">
         <v>3400</v>
       </c>
@@ -9855,7 +9861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" hidden="1">
       <c r="A187">
         <v>3401</v>
       </c>
@@ -9887,7 +9893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" hidden="1">
       <c r="A188">
         <v>3402</v>
       </c>
@@ -9919,7 +9925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" hidden="1">
       <c r="A189">
         <v>3403</v>
       </c>
@@ -9951,7 +9957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" hidden="1">
       <c r="A190">
         <v>3404</v>
       </c>
@@ -9983,7 +9989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" hidden="1">
       <c r="A191">
         <v>3405</v>
       </c>
@@ -10015,7 +10021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" hidden="1">
       <c r="A192">
         <v>3406</v>
       </c>
@@ -10047,7 +10053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" hidden="1">
       <c r="A193">
         <v>3407</v>
       </c>
@@ -10079,7 +10085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" hidden="1">
       <c r="A194">
         <v>3408</v>
       </c>
@@ -10111,7 +10117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" hidden="1">
       <c r="A195">
         <v>3409</v>
       </c>
@@ -10143,7 +10149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" hidden="1">
       <c r="A196">
         <v>3410</v>
       </c>
@@ -10175,7 +10181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" hidden="1">
       <c r="A197">
         <v>3411</v>
       </c>
@@ -10207,7 +10213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" hidden="1">
       <c r="A198">
         <v>3412</v>
       </c>
@@ -10239,7 +10245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" hidden="1">
       <c r="A199">
         <v>3413</v>
       </c>
@@ -10271,7 +10277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" hidden="1">
       <c r="A200">
         <v>3414</v>
       </c>
@@ -10303,7 +10309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" hidden="1">
       <c r="A201">
         <v>3415</v>
       </c>
@@ -10335,7 +10341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" hidden="1">
       <c r="A202">
         <v>3416</v>
       </c>
@@ -10367,7 +10373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" hidden="1">
       <c r="A203">
         <v>3417</v>
       </c>
@@ -10399,7 +10405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" hidden="1">
       <c r="A204">
         <v>3418</v>
       </c>
@@ -10431,7 +10437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" hidden="1">
       <c r="A205">
         <v>3419</v>
       </c>
@@ -10463,7 +10469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" hidden="1">
       <c r="A206">
         <v>3420</v>
       </c>
@@ -10495,7 +10501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" hidden="1">
       <c r="A207">
         <v>3421</v>
       </c>
@@ -10527,7 +10533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" hidden="1">
       <c r="A208">
         <v>3422</v>
       </c>
@@ -10559,7 +10565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" hidden="1">
       <c r="A209">
         <v>3423</v>
       </c>
@@ -10591,7 +10597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" hidden="1">
       <c r="A210">
         <v>3424</v>
       </c>
@@ -10623,7 +10629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" hidden="1">
       <c r="A211">
         <v>3425</v>
       </c>
@@ -10655,7 +10661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" hidden="1">
       <c r="A212">
         <v>3426</v>
       </c>
@@ -10687,7 +10693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" hidden="1">
       <c r="A213">
         <v>3427</v>
       </c>
@@ -10719,7 +10725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" hidden="1">
       <c r="A214">
         <v>3428</v>
       </c>
@@ -10751,7 +10757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" hidden="1">
       <c r="A215">
         <v>3429</v>
       </c>
@@ -10783,7 +10789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" hidden="1">
       <c r="A216">
         <v>3430</v>
       </c>
@@ -10815,7 +10821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" hidden="1">
       <c r="A217">
         <v>3431</v>
       </c>
@@ -10847,7 +10853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" hidden="1">
       <c r="A218">
         <v>3432</v>
       </c>
@@ -10879,7 +10885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" hidden="1">
       <c r="A219">
         <v>3433</v>
       </c>
@@ -10911,7 +10917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" hidden="1">
       <c r="A220">
         <v>3434</v>
       </c>
@@ -10943,7 +10949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" hidden="1">
       <c r="A221">
         <v>3435</v>
       </c>
@@ -10975,7 +10981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" hidden="1">
       <c r="A222">
         <v>3436</v>
       </c>
@@ -11007,7 +11013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" hidden="1">
       <c r="A223">
         <v>3437</v>
       </c>
@@ -11039,7 +11045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" hidden="1">
       <c r="A224">
         <v>3438</v>
       </c>
@@ -11071,7 +11077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" hidden="1">
       <c r="A225">
         <v>3439</v>
       </c>
@@ -11103,7 +11109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" hidden="1">
       <c r="A226">
         <v>3440</v>
       </c>
@@ -11135,7 +11141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" hidden="1">
       <c r="A227">
         <v>3441</v>
       </c>
@@ -11167,7 +11173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" hidden="1">
       <c r="A228">
         <v>3442</v>
       </c>
@@ -11199,7 +11205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" hidden="1">
       <c r="A229">
         <v>3443</v>
       </c>
@@ -11231,7 +11237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" hidden="1">
       <c r="A230">
         <v>3444</v>
       </c>
@@ -11263,7 +11269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" hidden="1">
       <c r="A231">
         <v>3445</v>
       </c>
@@ -11295,7 +11301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" hidden="1">
       <c r="A232">
         <v>3446</v>
       </c>
@@ -11327,7 +11333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" hidden="1">
       <c r="A233">
         <v>3447</v>
       </c>
@@ -11359,7 +11365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" hidden="1">
       <c r="A234">
         <v>3448</v>
       </c>
@@ -11391,7 +11397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" hidden="1">
       <c r="A235">
         <v>3449</v>
       </c>
@@ -11423,7 +11429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" hidden="1">
       <c r="A236">
         <v>3450</v>
       </c>
@@ -11455,7 +11461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" hidden="1">
       <c r="A237">
         <v>3451</v>
       </c>
@@ -11487,7 +11493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" hidden="1">
       <c r="A238">
         <v>3452</v>
       </c>
@@ -11519,7 +11525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" hidden="1">
       <c r="A239">
         <v>3453</v>
       </c>
@@ -11551,7 +11557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" hidden="1">
       <c r="A240">
         <v>3454</v>
       </c>
@@ -11583,7 +11589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" hidden="1">
       <c r="A241">
         <v>3455</v>
       </c>
@@ -11615,7 +11621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" hidden="1">
       <c r="A242">
         <v>3456</v>
       </c>
@@ -11647,7 +11653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" hidden="1">
       <c r="A243">
         <v>3457</v>
       </c>
@@ -11679,7 +11685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" hidden="1">
       <c r="A244">
         <v>3458</v>
       </c>
@@ -11711,7 +11717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" hidden="1">
       <c r="A245">
         <v>3459</v>
       </c>
@@ -11743,7 +11749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" hidden="1">
       <c r="A246">
         <v>3460</v>
       </c>
@@ -11775,7 +11781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" hidden="1">
       <c r="A247">
         <v>3461</v>
       </c>
@@ -11807,7 +11813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" hidden="1">
       <c r="A248">
         <v>3462</v>
       </c>
@@ -11839,7 +11845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" hidden="1">
       <c r="A249">
         <v>3463</v>
       </c>
@@ -11871,7 +11877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" hidden="1">
       <c r="A250">
         <v>3464</v>
       </c>
@@ -11903,7 +11909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" hidden="1">
       <c r="A251">
         <v>3465</v>
       </c>
@@ -11935,7 +11941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" hidden="1">
       <c r="A252">
         <v>3466</v>
       </c>
@@ -11967,7 +11973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" hidden="1">
       <c r="A253">
         <v>3467</v>
       </c>
@@ -11999,7 +12005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" hidden="1">
       <c r="A254">
         <v>3468</v>
       </c>
@@ -12031,7 +12037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" hidden="1">
       <c r="A255">
         <v>3469</v>
       </c>
@@ -12063,7 +12069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" hidden="1">
       <c r="A256">
         <v>3470</v>
       </c>
@@ -12095,7 +12101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" hidden="1">
       <c r="A257">
         <v>3471</v>
       </c>
@@ -12127,7 +12133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" hidden="1">
       <c r="A258">
         <v>3472</v>
       </c>
@@ -12159,7 +12165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" hidden="1">
       <c r="A259">
         <v>3473</v>
       </c>
@@ -12191,7 +12197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" hidden="1">
       <c r="A260">
         <v>3474</v>
       </c>
@@ -12223,7 +12229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" hidden="1">
       <c r="A261">
         <v>3475</v>
       </c>
@@ -12255,7 +12261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" hidden="1">
       <c r="A262">
         <v>3476</v>
       </c>
@@ -12287,7 +12293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" hidden="1">
       <c r="A263">
         <v>3477</v>
       </c>
@@ -12319,7 +12325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" hidden="1">
       <c r="A264">
         <v>3478</v>
       </c>
@@ -12351,7 +12357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" hidden="1">
       <c r="A265">
         <v>3479</v>
       </c>
@@ -12383,7 +12389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" hidden="1">
       <c r="A266">
         <v>3480</v>
       </c>
@@ -12415,7 +12421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" hidden="1">
       <c r="A267">
         <v>3481</v>
       </c>
@@ -12447,7 +12453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" hidden="1">
       <c r="A268">
         <v>3482</v>
       </c>
@@ -12479,7 +12485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" hidden="1">
       <c r="A269">
         <v>3483</v>
       </c>
@@ -12511,7 +12517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" hidden="1">
       <c r="A270">
         <v>3484</v>
       </c>
@@ -12543,7 +12549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" hidden="1">
       <c r="A271">
         <v>3485</v>
       </c>
@@ -12575,7 +12581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" hidden="1">
       <c r="A272">
         <v>3486</v>
       </c>
@@ -12607,7 +12613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" hidden="1">
       <c r="A273">
         <v>3487</v>
       </c>
@@ -12639,7 +12645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" hidden="1">
       <c r="A274">
         <v>3488</v>
       </c>
@@ -12671,7 +12677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" hidden="1">
       <c r="A275">
         <v>3489</v>
       </c>
@@ -12703,7 +12709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" hidden="1">
       <c r="A276">
         <v>3490</v>
       </c>
@@ -12735,7 +12741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" hidden="1">
       <c r="A277">
         <v>3491</v>
       </c>
@@ -12767,7 +12773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" hidden="1">
       <c r="A278">
         <v>3492</v>
       </c>
@@ -12799,7 +12805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" hidden="1">
       <c r="A279">
         <v>3493</v>
       </c>
@@ -12831,7 +12837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" hidden="1">
       <c r="A280">
         <v>3494</v>
       </c>
@@ -12863,7 +12869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" hidden="1">
       <c r="A281">
         <v>3495</v>
       </c>
@@ -12895,7 +12901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" hidden="1">
       <c r="A282">
         <v>3496</v>
       </c>
@@ -12927,7 +12933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" hidden="1">
       <c r="A283">
         <v>3497</v>
       </c>
@@ -12959,7 +12965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" hidden="1">
       <c r="A284">
         <v>3498</v>
       </c>
@@ -12991,7 +12997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" hidden="1">
       <c r="A285">
         <v>3499</v>
       </c>
@@ -13023,7 +13029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" hidden="1">
       <c r="A286">
         <v>3500</v>
       </c>
@@ -13055,7 +13061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" hidden="1">
       <c r="A287">
         <v>3501</v>
       </c>
@@ -13087,7 +13093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" hidden="1">
       <c r="A288">
         <v>3502</v>
       </c>
@@ -13119,7 +13125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" hidden="1">
       <c r="A289">
         <v>3503</v>
       </c>
@@ -13151,7 +13157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" hidden="1">
       <c r="A290">
         <v>3504</v>
       </c>
@@ -13183,7 +13189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" hidden="1">
       <c r="A291">
         <v>3505</v>
       </c>
@@ -13215,7 +13221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" hidden="1">
       <c r="A292">
         <v>3506</v>
       </c>
@@ -13247,7 +13253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" hidden="1">
       <c r="A293">
         <v>3507</v>
       </c>
@@ -13279,7 +13285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:10" hidden="1">
       <c r="A294">
         <v>3508</v>
       </c>
@@ -13311,7 +13317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" hidden="1">
       <c r="A295">
         <v>3509</v>
       </c>
@@ -13343,7 +13349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" hidden="1">
       <c r="A296">
         <v>3510</v>
       </c>
@@ -13375,7 +13381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" hidden="1">
       <c r="A297">
         <v>3511</v>
       </c>
@@ -13407,7 +13413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" hidden="1">
       <c r="A298">
         <v>3512</v>
       </c>
@@ -13439,7 +13445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" hidden="1">
       <c r="A299">
         <v>3513</v>
       </c>
@@ -13471,7 +13477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" hidden="1">
       <c r="A300">
         <v>3514</v>
       </c>
@@ -13503,7 +13509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" hidden="1">
       <c r="A301">
         <v>3515</v>
       </c>
@@ -13535,7 +13541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" hidden="1">
       <c r="A302">
         <v>3516</v>
       </c>
@@ -13567,7 +13573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" hidden="1">
       <c r="A303">
         <v>3517</v>
       </c>
@@ -13599,7 +13605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" hidden="1">
       <c r="A304">
         <v>3518</v>
       </c>
@@ -13631,7 +13637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:10" hidden="1">
       <c r="A305">
         <v>3519</v>
       </c>
@@ -13663,7 +13669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:10" hidden="1">
       <c r="A306">
         <v>3520</v>
       </c>
@@ -13695,7 +13701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:10" hidden="1">
       <c r="A307">
         <v>3521</v>
       </c>
@@ -13727,7 +13733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:10" hidden="1">
       <c r="A308">
         <v>3522</v>
       </c>
@@ -13759,7 +13765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:10" hidden="1">
       <c r="A309">
         <v>3523</v>
       </c>
@@ -13791,7 +13797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" hidden="1">
       <c r="A310">
         <v>3524</v>
       </c>
@@ -13823,7 +13829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:10" hidden="1">
       <c r="A311">
         <v>3525</v>
       </c>
@@ -13855,7 +13861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" spans="1:10" hidden="1">
       <c r="A312">
         <v>3526</v>
       </c>
@@ -13887,7 +13893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="313" spans="1:10">
+    <row r="313" spans="1:10" hidden="1">
       <c r="A313">
         <v>3527</v>
       </c>
@@ -13919,7 +13925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:10" hidden="1">
       <c r="A314">
         <v>3528</v>
       </c>
@@ -13951,7 +13957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" hidden="1">
       <c r="A315">
         <v>3529</v>
       </c>
@@ -13983,7 +13989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" spans="1:10" hidden="1">
       <c r="A316">
         <v>3530</v>
       </c>
@@ -14015,7 +14021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:10" hidden="1">
       <c r="A317">
         <v>3531</v>
       </c>
@@ -14047,7 +14053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" hidden="1">
       <c r="A318">
         <v>3532</v>
       </c>
@@ -14079,7 +14085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:10" hidden="1">
       <c r="A319">
         <v>3533</v>
       </c>
@@ -14111,7 +14117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:10" hidden="1">
       <c r="A320">
         <v>3534</v>
       </c>
@@ -14143,7 +14149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" spans="1:10">
+    <row r="321" spans="1:10" hidden="1">
       <c r="A321">
         <v>3535</v>
       </c>
@@ -14175,7 +14181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:10">
+    <row r="322" spans="1:10" hidden="1">
       <c r="A322">
         <v>3536</v>
       </c>
@@ -14207,7 +14213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="323" spans="1:10">
+    <row r="323" spans="1:10" hidden="1">
       <c r="A323">
         <v>3537</v>
       </c>
@@ -14239,7 +14245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="324" spans="1:10">
+    <row r="324" spans="1:10" hidden="1">
       <c r="A324">
         <v>3538</v>
       </c>
@@ -14271,7 +14277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" spans="1:10">
+    <row r="325" spans="1:10" hidden="1">
       <c r="A325">
         <v>3539</v>
       </c>
@@ -14303,7 +14309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:10">
+    <row r="326" spans="1:10" hidden="1">
       <c r="A326">
         <v>3540</v>
       </c>
@@ -14335,7 +14341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" spans="1:10">
+    <row r="327" spans="1:10" hidden="1">
       <c r="A327">
         <v>3541</v>
       </c>
@@ -14367,7 +14373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" spans="1:10">
+    <row r="328" spans="1:10" hidden="1">
       <c r="A328">
         <v>3542</v>
       </c>
@@ -14399,7 +14405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="329" spans="1:10">
+    <row r="329" spans="1:10" hidden="1">
       <c r="A329">
         <v>3543</v>
       </c>
@@ -14431,7 +14437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" spans="1:10">
+    <row r="330" spans="1:10" hidden="1">
       <c r="A330">
         <v>3544</v>
       </c>
@@ -14463,7 +14469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="331" spans="1:10">
+    <row r="331" spans="1:10" hidden="1">
       <c r="A331">
         <v>3545</v>
       </c>
@@ -14495,7 +14501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="332" spans="1:10">
+    <row r="332" spans="1:10" hidden="1">
       <c r="A332">
         <v>3546</v>
       </c>
@@ -14527,7 +14533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="333" spans="1:10">
+    <row r="333" spans="1:10" hidden="1">
       <c r="A333">
         <v>3547</v>
       </c>
@@ -14559,7 +14565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:10">
+    <row r="334" spans="1:10" hidden="1">
       <c r="A334">
         <v>3548</v>
       </c>
@@ -14591,7 +14597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" spans="1:10">
+    <row r="335" spans="1:10" hidden="1">
       <c r="A335">
         <v>3549</v>
       </c>
@@ -14623,7 +14629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="336" spans="1:10">
+    <row r="336" spans="1:10" hidden="1">
       <c r="A336">
         <v>3550</v>
       </c>
@@ -14655,7 +14661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="337" spans="1:10">
+    <row r="337" spans="1:10" hidden="1">
       <c r="A337">
         <v>3551</v>
       </c>
@@ -14687,7 +14693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="338" spans="1:10">
+    <row r="338" spans="1:10" hidden="1">
       <c r="A338">
         <v>3552</v>
       </c>
@@ -14719,7 +14725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" spans="1:10">
+    <row r="339" spans="1:10" hidden="1">
       <c r="A339">
         <v>3553</v>
       </c>
@@ -14751,7 +14757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:10">
+    <row r="340" spans="1:10" hidden="1">
       <c r="A340">
         <v>3554</v>
       </c>
@@ -14783,7 +14789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" spans="1:10">
+    <row r="341" spans="1:10" hidden="1">
       <c r="A341">
         <v>3555</v>
       </c>
@@ -14815,7 +14821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="342" spans="1:10">
+    <row r="342" spans="1:10" hidden="1">
       <c r="A342">
         <v>3556</v>
       </c>
@@ -14847,7 +14853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="343" spans="1:10">
+    <row r="343" spans="1:10" hidden="1">
       <c r="A343">
         <v>3557</v>
       </c>
@@ -14879,7 +14885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="344" spans="1:10">
+    <row r="344" spans="1:10" hidden="1">
       <c r="A344">
         <v>3558</v>
       </c>
@@ -14911,7 +14917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="345" spans="1:10">
+    <row r="345" spans="1:10" hidden="1">
       <c r="A345">
         <v>3559</v>
       </c>
@@ -14943,7 +14949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="346" spans="1:10">
+    <row r="346" spans="1:10" hidden="1">
       <c r="A346">
         <v>3560</v>
       </c>
@@ -14975,7 +14981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="347" spans="1:10">
+    <row r="347" spans="1:10" hidden="1">
       <c r="A347">
         <v>3561</v>
       </c>
@@ -15007,7 +15013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:10">
+    <row r="348" spans="1:10" hidden="1">
       <c r="A348">
         <v>3562</v>
       </c>
@@ -15039,7 +15045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="349" spans="1:10">
+    <row r="349" spans="1:10" hidden="1">
       <c r="A349">
         <v>3563</v>
       </c>
@@ -15071,7 +15077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="350" spans="1:10">
+    <row r="350" spans="1:10" hidden="1">
       <c r="A350">
         <v>3564</v>
       </c>
@@ -15103,7 +15109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:10">
+    <row r="351" spans="1:10" hidden="1">
       <c r="A351">
         <v>3565</v>
       </c>
@@ -15135,7 +15141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="352" spans="1:10">
+    <row r="352" spans="1:10" hidden="1">
       <c r="A352">
         <v>3566</v>
       </c>
@@ -15163,7 +15169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="353" spans="1:10">
+    <row r="353" spans="1:10" hidden="1">
       <c r="A353">
         <v>3567</v>
       </c>
@@ -15195,7 +15201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="354" spans="1:10">
+    <row r="354" spans="1:10" hidden="1">
       <c r="A354">
         <v>3568</v>
       </c>
@@ -15227,7 +15233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="355" spans="1:10">
+    <row r="355" spans="1:10" hidden="1">
       <c r="A355">
         <v>3569</v>
       </c>
@@ -15259,7 +15265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="356" spans="1:10">
+    <row r="356" spans="1:10" hidden="1">
       <c r="A356">
         <v>3570</v>
       </c>
@@ -15291,7 +15297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="357" spans="1:10">
+    <row r="357" spans="1:10" hidden="1">
       <c r="A357">
         <v>3571</v>
       </c>
@@ -15323,7 +15329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:10">
+    <row r="358" spans="1:10" hidden="1">
       <c r="A358">
         <v>3572</v>
       </c>
@@ -15355,7 +15361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:10">
+    <row r="359" spans="1:10" hidden="1">
       <c r="A359">
         <v>3573</v>
       </c>
@@ -15387,7 +15393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:10">
+    <row r="360" spans="1:10" hidden="1">
       <c r="A360">
         <v>3574</v>
       </c>
@@ -15419,7 +15425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:10">
+    <row r="361" spans="1:10" hidden="1">
       <c r="A361">
         <v>3575</v>
       </c>
@@ -15451,7 +15457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:10">
+    <row r="362" spans="1:10" hidden="1">
       <c r="A362">
         <v>3576</v>
       </c>
@@ -15483,7 +15489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:10">
+    <row r="363" spans="1:10" hidden="1">
       <c r="A363">
         <v>3577</v>
       </c>
@@ -15515,7 +15521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:10">
+    <row r="364" spans="1:10" hidden="1">
       <c r="A364">
         <v>3578</v>
       </c>
@@ -15547,7 +15553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:10">
+    <row r="365" spans="1:10" hidden="1">
       <c r="A365">
         <v>3579</v>
       </c>
@@ -15579,7 +15585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="366" spans="1:10">
+    <row r="366" spans="1:10" hidden="1">
       <c r="A366">
         <v>3580</v>
       </c>
@@ -15611,7 +15617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="367" spans="1:10">
+    <row r="367" spans="1:10" hidden="1">
       <c r="A367">
         <v>3581</v>
       </c>
@@ -15643,7 +15649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="368" spans="1:10">
+    <row r="368" spans="1:10" hidden="1">
       <c r="A368">
         <v>3582</v>
       </c>
@@ -15675,7 +15681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="369" spans="1:10">
+    <row r="369" spans="1:10" hidden="1">
       <c r="A369">
         <v>3583</v>
       </c>
@@ -15707,7 +15713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="370" spans="1:10">
+    <row r="370" spans="1:10" hidden="1">
       <c r="A370">
         <v>3584</v>
       </c>
@@ -15739,7 +15745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="371" spans="1:10">
+    <row r="371" spans="1:10" hidden="1">
       <c r="A371">
         <v>3585</v>
       </c>
@@ -15771,7 +15777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:10">
+    <row r="372" spans="1:10" hidden="1">
       <c r="A372">
         <v>3586</v>
       </c>
@@ -15803,7 +15809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:10">
+    <row r="373" spans="1:10" hidden="1">
       <c r="A373">
         <v>3587</v>
       </c>
@@ -15835,7 +15841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:10">
+    <row r="374" spans="1:10" hidden="1">
       <c r="A374">
         <v>3588</v>
       </c>
@@ -15867,7 +15873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:10">
+    <row r="375" spans="1:10" hidden="1">
       <c r="A375">
         <v>3589</v>
       </c>
@@ -15899,7 +15905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:10">
+    <row r="376" spans="1:10" hidden="1">
       <c r="A376">
         <v>3590</v>
       </c>
@@ -15931,7 +15937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:10">
+    <row r="377" spans="1:10" hidden="1">
       <c r="A377">
         <v>3591</v>
       </c>
@@ -15963,7 +15969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:10">
+    <row r="378" spans="1:10" hidden="1">
       <c r="A378">
         <v>3592</v>
       </c>
@@ -15995,7 +16001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:10">
+    <row r="379" spans="1:10" hidden="1">
       <c r="A379">
         <v>3593</v>
       </c>
@@ -16027,7 +16033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:10">
+    <row r="380" spans="1:10" hidden="1">
       <c r="A380">
         <v>3594</v>
       </c>
@@ -16059,7 +16065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:10">
+    <row r="381" spans="1:10" hidden="1">
       <c r="A381">
         <v>3595</v>
       </c>
@@ -16091,7 +16097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:10">
+    <row r="382" spans="1:10" hidden="1">
       <c r="A382">
         <v>3596</v>
       </c>
@@ -16123,7 +16129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:10">
+    <row r="383" spans="1:10" hidden="1">
       <c r="A383">
         <v>3597</v>
       </c>
@@ -16155,7 +16161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:10">
+    <row r="384" spans="1:10" hidden="1">
       <c r="A384">
         <v>3598</v>
       </c>
@@ -16187,7 +16193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:10">
+    <row r="385" spans="1:10" hidden="1">
       <c r="A385">
         <v>3599</v>
       </c>
@@ -16219,7 +16225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:10">
+    <row r="386" spans="1:10" hidden="1">
       <c r="A386">
         <v>3600</v>
       </c>
@@ -16251,7 +16257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:10">
+    <row r="387" spans="1:10" hidden="1">
       <c r="A387">
         <v>3601</v>
       </c>
@@ -16283,7 +16289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:10">
+    <row r="388" spans="1:10" hidden="1">
       <c r="A388">
         <v>3602</v>
       </c>
@@ -16315,7 +16321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="389" spans="1:10">
+    <row r="389" spans="1:10" hidden="1">
       <c r="A389">
         <v>3603</v>
       </c>
@@ -16347,7 +16353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:10">
+    <row r="390" spans="1:10" hidden="1">
       <c r="A390">
         <v>3604</v>
       </c>
@@ -16379,7 +16385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="391" spans="1:10">
+    <row r="391" spans="1:10" hidden="1">
       <c r="A391">
         <v>3605</v>
       </c>
@@ -16411,7 +16417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="1:10">
+    <row r="392" spans="1:10" hidden="1">
       <c r="A392">
         <v>3606</v>
       </c>
@@ -16443,7 +16449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:10">
+    <row r="393" spans="1:10" hidden="1">
       <c r="A393">
         <v>3607</v>
       </c>
@@ -16475,7 +16481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:10">
+    <row r="394" spans="1:10" hidden="1">
       <c r="A394">
         <v>3608</v>
       </c>
@@ -16507,7 +16513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" spans="1:10">
+    <row r="395" spans="1:10" hidden="1">
       <c r="A395">
         <v>3609</v>
       </c>
@@ -16539,7 +16545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:10">
+    <row r="396" spans="1:10" hidden="1">
       <c r="A396">
         <v>3610</v>
       </c>
@@ -16571,7 +16577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="397" spans="1:10">
+    <row r="397" spans="1:10" hidden="1">
       <c r="A397">
         <v>3611</v>
       </c>
@@ -16603,7 +16609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:10">
+    <row r="398" spans="1:10" hidden="1">
       <c r="A398">
         <v>3612</v>
       </c>
@@ -16635,7 +16641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="399" spans="1:10">
+    <row r="399" spans="1:10" hidden="1">
       <c r="A399">
         <v>3613</v>
       </c>
@@ -16667,7 +16673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="400" spans="1:10">
+    <row r="400" spans="1:10" hidden="1">
       <c r="A400">
         <v>3614</v>
       </c>
@@ -16699,7 +16705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="401" spans="1:10">
+    <row r="401" spans="1:10" hidden="1">
       <c r="A401">
         <v>3615</v>
       </c>
@@ -16731,7 +16737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="1:10">
+    <row r="402" spans="1:10" hidden="1">
       <c r="A402">
         <v>3616</v>
       </c>
@@ -16763,7 +16769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="403" spans="1:10">
+    <row r="403" spans="1:10" hidden="1">
       <c r="A403">
         <v>3617</v>
       </c>
@@ -16795,7 +16801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="404" spans="1:10">
+    <row r="404" spans="1:10" hidden="1">
       <c r="A404">
         <v>3618</v>
       </c>
@@ -16827,7 +16833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:10">
+    <row r="405" spans="1:10" hidden="1">
       <c r="A405">
         <v>3619</v>
       </c>
@@ -16859,7 +16865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="1:10">
+    <row r="406" spans="1:10" hidden="1">
       <c r="A406">
         <v>3620</v>
       </c>
@@ -16891,7 +16897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="1:10">
+    <row r="407" spans="1:10" hidden="1">
       <c r="A407">
         <v>3621</v>
       </c>
@@ -16923,7 +16929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="408" spans="1:10">
+    <row r="408" spans="1:10" hidden="1">
       <c r="A408">
         <v>3622</v>
       </c>
@@ -16955,7 +16961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="409" spans="1:10">
+    <row r="409" spans="1:10" hidden="1">
       <c r="A409">
         <v>3623</v>
       </c>
@@ -16987,7 +16993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:10">
+    <row r="410" spans="1:10" hidden="1">
       <c r="A410">
         <v>3624</v>
       </c>
@@ -17019,7 +17025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="411" spans="1:10">
+    <row r="411" spans="1:10" hidden="1">
       <c r="A411">
         <v>3625</v>
       </c>
@@ -17051,7 +17057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="1:10">
+    <row r="412" spans="1:10" hidden="1">
       <c r="A412">
         <v>3626</v>
       </c>
@@ -17083,7 +17089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="413" spans="1:10">
+    <row r="413" spans="1:10" hidden="1">
       <c r="A413">
         <v>3627</v>
       </c>
@@ -17115,7 +17121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="414" spans="1:10">
+    <row r="414" spans="1:10" hidden="1">
       <c r="A414">
         <v>3628</v>
       </c>
@@ -17147,7 +17153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:10">
+    <row r="415" spans="1:10" hidden="1">
       <c r="A415">
         <v>3629</v>
       </c>
@@ -17179,7 +17185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:10">
+    <row r="416" spans="1:10" hidden="1">
       <c r="A416">
         <v>3630</v>
       </c>
@@ -17211,7 +17217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:10">
+    <row r="417" spans="1:10" hidden="1">
       <c r="A417">
         <v>3631</v>
       </c>
@@ -17243,7 +17249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="418" spans="1:10">
+    <row r="418" spans="1:10" hidden="1">
       <c r="A418">
         <v>3632</v>
       </c>
@@ -17275,7 +17281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="419" spans="1:10">
+    <row r="419" spans="1:10" hidden="1">
       <c r="A419">
         <v>3633</v>
       </c>
@@ -17307,7 +17313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:10">
+    <row r="420" spans="1:10" hidden="1">
       <c r="A420">
         <v>3634</v>
       </c>
@@ -17339,7 +17345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="421" spans="1:10">
+    <row r="421" spans="1:10" hidden="1">
       <c r="A421">
         <v>3635</v>
       </c>
@@ -17371,7 +17377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="422" spans="1:10">
+    <row r="422" spans="1:10" hidden="1">
       <c r="A422">
         <v>3636</v>
       </c>
@@ -17403,7 +17409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="423" spans="1:10">
+    <row r="423" spans="1:10" hidden="1">
       <c r="A423">
         <v>3637</v>
       </c>
@@ -17435,7 +17441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="424" spans="1:10">
+    <row r="424" spans="1:10" hidden="1">
       <c r="A424">
         <v>3638</v>
       </c>
@@ -17467,7 +17473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="425" spans="1:10">
+    <row r="425" spans="1:10" hidden="1">
       <c r="A425">
         <v>3639</v>
       </c>
@@ -17499,7 +17505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="426" spans="1:10">
+    <row r="426" spans="1:10" hidden="1">
       <c r="A426">
         <v>3640</v>
       </c>
@@ -17531,7 +17537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="427" spans="1:10">
+    <row r="427" spans="1:10" hidden="1">
       <c r="A427">
         <v>3641</v>
       </c>
@@ -17563,7 +17569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:10">
+    <row r="428" spans="1:10" hidden="1">
       <c r="A428">
         <v>3642</v>
       </c>
@@ -17595,7 +17601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:10">
+    <row r="429" spans="1:10" hidden="1">
       <c r="A429">
         <v>3643</v>
       </c>
@@ -17627,7 +17633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="430" spans="1:10">
+    <row r="430" spans="1:10" hidden="1">
       <c r="A430">
         <v>3644</v>
       </c>
@@ -17659,7 +17665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:10">
+    <row r="431" spans="1:10" hidden="1">
       <c r="A431">
         <v>3645</v>
       </c>
@@ -17691,7 +17697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:10">
+    <row r="432" spans="1:10" hidden="1">
       <c r="A432">
         <v>3646</v>
       </c>
@@ -17723,7 +17729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:10">
+    <row r="433" spans="1:10" hidden="1">
       <c r="A433">
         <v>3647</v>
       </c>
@@ -17755,7 +17761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:10">
+    <row r="434" spans="1:10" hidden="1">
       <c r="A434">
         <v>3648</v>
       </c>
@@ -17787,7 +17793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:10">
+    <row r="435" spans="1:10" hidden="1">
       <c r="A435">
         <v>3649</v>
       </c>
@@ -17819,7 +17825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:10">
+    <row r="436" spans="1:10" hidden="1">
       <c r="A436">
         <v>3650</v>
       </c>
@@ -17851,7 +17857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:10">
+    <row r="437" spans="1:10" hidden="1">
       <c r="A437">
         <v>3651</v>
       </c>
@@ -17883,7 +17889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" spans="1:10">
+    <row r="438" spans="1:10" hidden="1">
       <c r="A438">
         <v>3652</v>
       </c>
@@ -17915,7 +17921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:10">
+    <row r="439" spans="1:10" hidden="1">
       <c r="A439">
         <v>3653</v>
       </c>
@@ -17947,7 +17953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="440" spans="1:10">
+    <row r="440" spans="1:10" hidden="1">
       <c r="A440">
         <v>3654</v>
       </c>
@@ -17979,7 +17985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:10">
+    <row r="441" spans="1:10" hidden="1">
       <c r="A441">
         <v>3655</v>
       </c>
@@ -18011,7 +18017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:10">
+    <row r="442" spans="1:10" hidden="1">
       <c r="A442">
         <v>3656</v>
       </c>
@@ -18043,7 +18049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:10">
+    <row r="443" spans="1:10" hidden="1">
       <c r="A443">
         <v>3657</v>
       </c>
@@ -18075,7 +18081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:10">
+    <row r="444" spans="1:10" hidden="1">
       <c r="A444">
         <v>3658</v>
       </c>
@@ -18107,7 +18113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:10">
+    <row r="445" spans="1:10" hidden="1">
       <c r="A445">
         <v>3659</v>
       </c>
@@ -18139,7 +18145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:10">
+    <row r="446" spans="1:10" hidden="1">
       <c r="A446">
         <v>3660</v>
       </c>
@@ -18171,7 +18177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:10">
+    <row r="447" spans="1:10" hidden="1">
       <c r="A447">
         <v>3661</v>
       </c>
@@ -18203,7 +18209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:10">
+    <row r="448" spans="1:10" hidden="1">
       <c r="A448">
         <v>3662</v>
       </c>
@@ -18235,7 +18241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:10">
+    <row r="449" spans="1:10" hidden="1">
       <c r="A449">
         <v>3663</v>
       </c>
@@ -18267,7 +18273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:10">
+    <row r="450" spans="1:10" hidden="1">
       <c r="A450">
         <v>3664</v>
       </c>
@@ -18299,7 +18305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:10">
+    <row r="451" spans="1:10" hidden="1">
       <c r="A451">
         <v>3665</v>
       </c>
@@ -18331,7 +18337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:10">
+    <row r="452" spans="1:10" hidden="1">
       <c r="A452">
         <v>3666</v>
       </c>
@@ -18363,7 +18369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="1:10">
+    <row r="453" spans="1:10" hidden="1">
       <c r="A453">
         <v>3667</v>
       </c>
@@ -18395,7 +18401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:10">
+    <row r="454" spans="1:10" hidden="1">
       <c r="A454">
         <v>3668</v>
       </c>
@@ -18427,7 +18433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:10">
+    <row r="455" spans="1:10" hidden="1">
       <c r="A455">
         <v>3669</v>
       </c>
@@ -18459,7 +18465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:10">
+    <row r="456" spans="1:10" hidden="1">
       <c r="A456">
         <v>3670</v>
       </c>
@@ -18491,7 +18497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="457" spans="1:10">
+    <row r="457" spans="1:10" hidden="1">
       <c r="A457">
         <v>3671</v>
       </c>
@@ -18523,7 +18529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:10">
+    <row r="458" spans="1:10" hidden="1">
       <c r="A458">
         <v>3672</v>
       </c>
@@ -18555,7 +18561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="459" spans="1:10">
+    <row r="459" spans="1:10" hidden="1">
       <c r="A459">
         <v>3673</v>
       </c>
@@ -18587,7 +18593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:10">
+    <row r="460" spans="1:10" hidden="1">
       <c r="A460">
         <v>3674</v>
       </c>
@@ -18619,7 +18625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="461" spans="1:10">
+    <row r="461" spans="1:10" hidden="1">
       <c r="A461">
         <v>3675</v>
       </c>
@@ -18651,7 +18657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="462" spans="1:10">
+    <row r="462" spans="1:10" hidden="1">
       <c r="A462">
         <v>3676</v>
       </c>
@@ -18683,7 +18689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:10">
+    <row r="463" spans="1:10" hidden="1">
       <c r="A463">
         <v>3677</v>
       </c>
@@ -18715,7 +18721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="464" spans="1:10">
+    <row r="464" spans="1:10" hidden="1">
       <c r="A464">
         <v>3678</v>
       </c>
@@ -18747,7 +18753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:10">
+    <row r="465" spans="1:10" hidden="1">
       <c r="A465">
         <v>3679</v>
       </c>
@@ -18779,7 +18785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="466" spans="1:10">
+    <row r="466" spans="1:10" hidden="1">
       <c r="A466">
         <v>3680</v>
       </c>
@@ -18811,7 +18817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="467" spans="1:10">
+    <row r="467" spans="1:10" hidden="1">
       <c r="A467">
         <v>3681</v>
       </c>
@@ -18843,7 +18849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="468" spans="1:10">
+    <row r="468" spans="1:10" hidden="1">
       <c r="A468">
         <v>3682</v>
       </c>
@@ -18875,7 +18881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:10">
+    <row r="469" spans="1:10" hidden="1">
       <c r="A469">
         <v>3683</v>
       </c>
@@ -18907,7 +18913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:10">
+    <row r="470" spans="1:10" hidden="1">
       <c r="A470">
         <v>3684</v>
       </c>
@@ -18939,7 +18945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="471" spans="1:10">
+    <row r="471" spans="1:10" hidden="1">
       <c r="A471">
         <v>3685</v>
       </c>
@@ -18971,7 +18977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:10">
+    <row r="472" spans="1:10" hidden="1">
       <c r="A472">
         <v>3686</v>
       </c>
@@ -19003,7 +19009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="473" spans="1:10">
+    <row r="473" spans="1:10" hidden="1">
       <c r="A473">
         <v>3687</v>
       </c>
@@ -19035,7 +19041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:10">
+    <row r="474" spans="1:10" hidden="1">
       <c r="A474">
         <v>3688</v>
       </c>
@@ -19067,7 +19073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="475" spans="1:10">
+    <row r="475" spans="1:10" hidden="1">
       <c r="A475">
         <v>3689</v>
       </c>
@@ -19099,7 +19105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="476" spans="1:10">
+    <row r="476" spans="1:10" hidden="1">
       <c r="A476">
         <v>3690</v>
       </c>
@@ -19131,7 +19137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="477" spans="1:10">
+    <row r="477" spans="1:10" hidden="1">
       <c r="A477">
         <v>3691</v>
       </c>
@@ -19163,7 +19169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="478" spans="1:10">
+    <row r="478" spans="1:10" hidden="1">
       <c r="A478">
         <v>3692</v>
       </c>
@@ -19195,7 +19201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="479" spans="1:10">
+    <row r="479" spans="1:10" hidden="1">
       <c r="A479">
         <v>3693</v>
       </c>
@@ -19227,7 +19233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="480" spans="1:10">
+    <row r="480" spans="1:10" hidden="1">
       <c r="A480">
         <v>3694</v>
       </c>
@@ -19259,7 +19265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="481" spans="1:10">
+    <row r="481" spans="1:10" hidden="1">
       <c r="A481">
         <v>3695</v>
       </c>
@@ -19291,7 +19297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="1:10">
+    <row r="482" spans="1:10" hidden="1">
       <c r="A482">
         <v>3696</v>
       </c>
@@ -19323,7 +19329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="483" spans="1:10">
+    <row r="483" spans="1:10" hidden="1">
       <c r="A483">
         <v>3697</v>
       </c>
@@ -19355,7 +19361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="484" spans="1:10">
+    <row r="484" spans="1:10" hidden="1">
       <c r="A484">
         <v>3698</v>
       </c>
@@ -19387,7 +19393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="485" spans="1:10">
+    <row r="485" spans="1:10" hidden="1">
       <c r="A485">
         <v>3699</v>
       </c>
@@ -19419,7 +19425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="486" spans="1:10">
+    <row r="486" spans="1:10" hidden="1">
       <c r="A486">
         <v>3700</v>
       </c>
@@ -19451,7 +19457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="487" spans="1:10">
+    <row r="487" spans="1:10" hidden="1">
       <c r="A487">
         <v>3701</v>
       </c>
@@ -19483,7 +19489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="488" spans="1:10">
+    <row r="488" spans="1:10" hidden="1">
       <c r="A488">
         <v>3702</v>
       </c>
@@ -19515,7 +19521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="489" spans="1:10">
+    <row r="489" spans="1:10" hidden="1">
       <c r="A489">
         <v>3703</v>
       </c>
@@ -19547,7 +19553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="490" spans="1:10">
+    <row r="490" spans="1:10" hidden="1">
       <c r="A490">
         <v>3704</v>
       </c>
@@ -19579,7 +19585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="491" spans="1:10">
+    <row r="491" spans="1:10" hidden="1">
       <c r="A491">
         <v>3705</v>
       </c>
@@ -19611,7 +19617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="492" spans="1:10">
+    <row r="492" spans="1:10" hidden="1">
       <c r="A492">
         <v>3706</v>
       </c>
@@ -19643,7 +19649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="493" spans="1:10">
+    <row r="493" spans="1:10" hidden="1">
       <c r="A493">
         <v>3707</v>
       </c>
@@ -19675,7 +19681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="494" spans="1:10">
+    <row r="494" spans="1:10" hidden="1">
       <c r="A494">
         <v>3708</v>
       </c>
@@ -19707,7 +19713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="495" spans="1:10">
+    <row r="495" spans="1:10" hidden="1">
       <c r="A495">
         <v>3709</v>
       </c>
@@ -19739,7 +19745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="496" spans="1:10">
+    <row r="496" spans="1:10" hidden="1">
       <c r="A496">
         <v>3710</v>
       </c>
@@ -19771,7 +19777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="497" spans="1:10">
+    <row r="497" spans="1:10" hidden="1">
       <c r="A497">
         <v>3711</v>
       </c>
@@ -19803,7 +19809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="498" spans="1:10">
+    <row r="498" spans="1:10" hidden="1">
       <c r="A498">
         <v>3712</v>
       </c>
@@ -19835,7 +19841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="499" spans="1:10">
+    <row r="499" spans="1:10" hidden="1">
       <c r="A499">
         <v>3713</v>
       </c>
@@ -19867,7 +19873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="500" spans="1:10">
+    <row r="500" spans="1:10" hidden="1">
       <c r="A500">
         <v>3714</v>
       </c>
@@ -19899,7 +19905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="501" spans="1:10">
+    <row r="501" spans="1:10" hidden="1">
       <c r="A501">
         <v>3715</v>
       </c>
@@ -19931,7 +19937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="502" spans="1:10">
+    <row r="502" spans="1:10" hidden="1">
       <c r="A502">
         <v>3716</v>
       </c>
@@ -19963,7 +19969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="503" spans="1:10">
+    <row r="503" spans="1:10" hidden="1">
       <c r="A503">
         <v>3717</v>
       </c>
@@ -19995,7 +20001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="504" spans="1:10">
+    <row r="504" spans="1:10" hidden="1">
       <c r="A504">
         <v>3718</v>
       </c>
@@ -20027,7 +20033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="505" spans="1:10">
+    <row r="505" spans="1:10" hidden="1">
       <c r="A505">
         <v>3719</v>
       </c>
@@ -20059,7 +20065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="506" spans="1:10">
+    <row r="506" spans="1:10" hidden="1">
       <c r="A506">
         <v>3720</v>
       </c>
@@ -20091,7 +20097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="507" spans="1:10">
+    <row r="507" spans="1:10" hidden="1">
       <c r="A507">
         <v>3721</v>
       </c>
@@ -20123,7 +20129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="508" spans="1:10">
+    <row r="508" spans="1:10" hidden="1">
       <c r="A508">
         <v>3722</v>
       </c>
@@ -20155,7 +20161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="509" spans="1:10">
+    <row r="509" spans="1:10" hidden="1">
       <c r="A509">
         <v>3723</v>
       </c>
@@ -20187,7 +20193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="510" spans="1:10">
+    <row r="510" spans="1:10" hidden="1">
       <c r="A510">
         <v>3724</v>
       </c>
@@ -20219,7 +20225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="511" spans="1:10">
+    <row r="511" spans="1:10" hidden="1">
       <c r="A511">
         <v>3725</v>
       </c>
@@ -20251,7 +20257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="512" spans="1:10">
+    <row r="512" spans="1:10" hidden="1">
       <c r="A512">
         <v>3726</v>
       </c>
@@ -20283,7 +20289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="513" spans="1:10">
+    <row r="513" spans="1:10" hidden="1">
       <c r="A513">
         <v>3727</v>
       </c>
@@ -20315,7 +20321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="514" spans="1:10">
+    <row r="514" spans="1:10" hidden="1">
       <c r="A514">
         <v>3728</v>
       </c>
@@ -20347,7 +20353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="515" spans="1:10">
+    <row r="515" spans="1:10" hidden="1">
       <c r="A515">
         <v>3729</v>
       </c>
@@ -20379,7 +20385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="516" spans="1:10">
+    <row r="516" spans="1:10" hidden="1">
       <c r="A516">
         <v>3730</v>
       </c>
@@ -20411,7 +20417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="517" spans="1:10">
+    <row r="517" spans="1:10" hidden="1">
       <c r="A517">
         <v>3731</v>
       </c>
@@ -20443,7 +20449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="518" spans="1:10">
+    <row r="518" spans="1:10" hidden="1">
       <c r="A518">
         <v>3732</v>
       </c>
@@ -20475,7 +20481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="519" spans="1:10">
+    <row r="519" spans="1:10" hidden="1">
       <c r="A519">
         <v>3733</v>
       </c>
@@ -20507,7 +20513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="520" spans="1:10">
+    <row r="520" spans="1:10" hidden="1">
       <c r="A520">
         <v>3734</v>
       </c>
@@ -20539,7 +20545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="521" spans="1:10">
+    <row r="521" spans="1:10" hidden="1">
       <c r="A521">
         <v>3735</v>
       </c>
@@ -20571,7 +20577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="522" spans="1:10">
+    <row r="522" spans="1:10" hidden="1">
       <c r="A522">
         <v>3736</v>
       </c>
@@ -20603,7 +20609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="523" spans="1:10">
+    <row r="523" spans="1:10" hidden="1">
       <c r="A523">
         <v>3737</v>
       </c>
@@ -20635,7 +20641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="524" spans="1:10">
+    <row r="524" spans="1:10" hidden="1">
       <c r="A524">
         <v>3738</v>
       </c>
@@ -20667,7 +20673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="525" spans="1:10">
+    <row r="525" spans="1:10" hidden="1">
       <c r="A525">
         <v>3739</v>
       </c>
@@ -20699,7 +20705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="526" spans="1:10">
+    <row r="526" spans="1:10" hidden="1">
       <c r="A526">
         <v>3740</v>
       </c>
@@ -20731,7 +20737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="527" spans="1:10">
+    <row r="527" spans="1:10" hidden="1">
       <c r="A527">
         <v>3741</v>
       </c>
@@ -20763,7 +20769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="528" spans="1:10">
+    <row r="528" spans="1:10" hidden="1">
       <c r="A528">
         <v>3742</v>
       </c>
@@ -20795,7 +20801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="529" spans="1:10">
+    <row r="529" spans="1:10" hidden="1">
       <c r="A529">
         <v>3743</v>
       </c>
@@ -20827,7 +20833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="530" spans="1:10">
+    <row r="530" spans="1:10" hidden="1">
       <c r="A530">
         <v>3744</v>
       </c>
@@ -20859,7 +20865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="531" spans="1:10">
+    <row r="531" spans="1:10" hidden="1">
       <c r="A531">
         <v>3745</v>
       </c>
@@ -20891,7 +20897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="532" spans="1:10">
+    <row r="532" spans="1:10" hidden="1">
       <c r="A532">
         <v>3746</v>
       </c>
@@ -20923,7 +20929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="533" spans="1:10">
+    <row r="533" spans="1:10" hidden="1">
       <c r="A533">
         <v>3747</v>
       </c>
@@ -20955,7 +20961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="534" spans="1:10">
+    <row r="534" spans="1:10" hidden="1">
       <c r="A534">
         <v>3748</v>
       </c>
@@ -20987,7 +20993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="535" spans="1:10">
+    <row r="535" spans="1:10" hidden="1">
       <c r="A535">
         <v>3749</v>
       </c>
@@ -21019,7 +21025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="536" spans="1:10">
+    <row r="536" spans="1:10" hidden="1">
       <c r="A536">
         <v>3750</v>
       </c>
@@ -21051,7 +21057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="537" spans="1:10">
+    <row r="537" spans="1:10" hidden="1">
       <c r="A537">
         <v>3751</v>
       </c>
@@ -21083,7 +21089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="538" spans="1:10">
+    <row r="538" spans="1:10" hidden="1">
       <c r="A538">
         <v>3752</v>
       </c>
@@ -21115,7 +21121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="539" spans="1:10">
+    <row r="539" spans="1:10" hidden="1">
       <c r="A539">
         <v>3753</v>
       </c>
@@ -21147,7 +21153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="540" spans="1:10">
+    <row r="540" spans="1:10" hidden="1">
       <c r="A540">
         <v>3754</v>
       </c>
@@ -21179,7 +21185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="541" spans="1:10">
+    <row r="541" spans="1:10" hidden="1">
       <c r="A541">
         <v>3755</v>
       </c>
@@ -21211,7 +21217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="542" spans="1:10">
+    <row r="542" spans="1:10" hidden="1">
       <c r="A542">
         <v>3756</v>
       </c>
@@ -21243,7 +21249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="543" spans="1:10">
+    <row r="543" spans="1:10" hidden="1">
       <c r="A543">
         <v>3757</v>
       </c>
@@ -21275,7 +21281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:10">
+    <row r="544" spans="1:10" hidden="1">
       <c r="A544">
         <v>3758</v>
       </c>
@@ -21307,7 +21313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="545" spans="1:10">
+    <row r="545" spans="1:10" hidden="1">
       <c r="A545">
         <v>3759</v>
       </c>
@@ -21339,7 +21345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="546" spans="1:10">
+    <row r="546" spans="1:10" hidden="1">
       <c r="A546">
         <v>3760</v>
       </c>
@@ -21371,7 +21377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="547" spans="1:10">
+    <row r="547" spans="1:10" hidden="1">
       <c r="A547">
         <v>3761</v>
       </c>
@@ -21403,7 +21409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="548" spans="1:10">
+    <row r="548" spans="1:10" hidden="1">
       <c r="A548">
         <v>3762</v>
       </c>
@@ -21435,7 +21441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="549" spans="1:10">
+    <row r="549" spans="1:10" hidden="1">
       <c r="A549">
         <v>3763</v>
       </c>
@@ -21467,7 +21473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="550" spans="1:10">
+    <row r="550" spans="1:10" hidden="1">
       <c r="A550">
         <v>3764</v>
       </c>
@@ -21499,7 +21505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="551" spans="1:10">
+    <row r="551" spans="1:10" hidden="1">
       <c r="A551">
         <v>3765</v>
       </c>
@@ -21531,7 +21537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="552" spans="1:10">
+    <row r="552" spans="1:10" hidden="1">
       <c r="A552">
         <v>3766</v>
       </c>
@@ -21565,7 +21571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="553" spans="1:10">
+    <row r="553" spans="1:10" hidden="1">
       <c r="A553">
         <v>3767</v>
       </c>
@@ -21599,7 +21605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="554" spans="1:10">
+    <row r="554" spans="1:10" hidden="1">
       <c r="A554">
         <v>3768</v>
       </c>
@@ -21633,7 +21639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="555" spans="1:10">
+    <row r="555" spans="1:10" hidden="1">
       <c r="A555">
         <v>3769</v>
       </c>
@@ -21667,7 +21673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="556" spans="1:10">
+    <row r="556" spans="1:10" hidden="1">
       <c r="A556">
         <v>3770</v>
       </c>
@@ -21701,7 +21707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="557" spans="1:10">
+    <row r="557" spans="1:10" hidden="1">
       <c r="A557">
         <v>3771</v>
       </c>
@@ -21735,7 +21741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="558" spans="1:10">
+    <row r="558" spans="1:10" hidden="1">
       <c r="A558">
         <v>3772</v>
       </c>
@@ -21769,7 +21775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="559" spans="1:10">
+    <row r="559" spans="1:10" hidden="1">
       <c r="A559">
         <v>3773</v>
       </c>
@@ -21803,7 +21809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="560" spans="1:10">
+    <row r="560" spans="1:10" hidden="1">
       <c r="A560">
         <v>3774</v>
       </c>
@@ -21837,7 +21843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="561" spans="1:10">
+    <row r="561" spans="1:10" hidden="1">
       <c r="A561">
         <v>3775</v>
       </c>
@@ -21871,7 +21877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="562" spans="1:10">
+    <row r="562" spans="1:10" hidden="1">
       <c r="A562">
         <v>3776</v>
       </c>
@@ -21905,7 +21911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="563" spans="1:10">
+    <row r="563" spans="1:10" hidden="1">
       <c r="A563">
         <v>3777</v>
       </c>
@@ -21939,7 +21945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="564" spans="1:10">
+    <row r="564" spans="1:10" hidden="1">
       <c r="A564">
         <v>3778</v>
       </c>
@@ -21973,7 +21979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="565" spans="1:10">
+    <row r="565" spans="1:10" hidden="1">
       <c r="A565">
         <v>3779</v>
       </c>
@@ -22007,7 +22013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="566" spans="1:10">
+    <row r="566" spans="1:10" hidden="1">
       <c r="A566">
         <v>3780</v>
       </c>
@@ -22041,7 +22047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="567" spans="1:10">
+    <row r="567" spans="1:10" hidden="1">
       <c r="A567">
         <v>3781</v>
       </c>
@@ -22075,7 +22081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="568" spans="1:10">
+    <row r="568" spans="1:10" hidden="1">
       <c r="A568">
         <v>3782</v>
       </c>
@@ -22109,7 +22115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="569" spans="1:10">
+    <row r="569" spans="1:10" hidden="1">
       <c r="A569">
         <v>3783</v>
       </c>
@@ -22143,7 +22149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="570" spans="1:10">
+    <row r="570" spans="1:10" hidden="1">
       <c r="A570">
         <v>3784</v>
       </c>
@@ -22177,7 +22183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="571" spans="1:10">
+    <row r="571" spans="1:10" hidden="1">
       <c r="A571">
         <v>3785</v>
       </c>
@@ -22211,7 +22217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="572" spans="1:10">
+    <row r="572" spans="1:10" hidden="1">
       <c r="A572">
         <v>3786</v>
       </c>
@@ -22245,7 +22251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="573" spans="1:10">
+    <row r="573" spans="1:10" hidden="1">
       <c r="A573">
         <v>3787</v>
       </c>
@@ -22279,7 +22285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="574" spans="1:10">
+    <row r="574" spans="1:10" hidden="1">
       <c r="A574">
         <v>3788</v>
       </c>
@@ -22313,7 +22319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="575" spans="1:10">
+    <row r="575" spans="1:10" hidden="1">
       <c r="A575">
         <v>3789</v>
       </c>
@@ -22347,7 +22353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="576" spans="1:10">
+    <row r="576" spans="1:10" hidden="1">
       <c r="A576">
         <v>3790</v>
       </c>
@@ -22381,7 +22387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="577" spans="1:10">
+    <row r="577" spans="1:10" hidden="1">
       <c r="A577">
         <v>3791</v>
       </c>
@@ -22415,7 +22421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="578" spans="1:10">
+    <row r="578" spans="1:10" hidden="1">
       <c r="A578">
         <v>3792</v>
       </c>
@@ -22449,7 +22455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="579" spans="1:10">
+    <row r="579" spans="1:10" hidden="1">
       <c r="A579">
         <v>3793</v>
       </c>
@@ -22483,7 +22489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="580" spans="1:10">
+    <row r="580" spans="1:10" hidden="1">
       <c r="A580">
         <v>3794</v>
       </c>
@@ -22517,7 +22523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="581" spans="1:10">
+    <row r="581" spans="1:10" hidden="1">
       <c r="A581">
         <v>3795</v>
       </c>
@@ -22551,7 +22557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="582" spans="1:10">
+    <row r="582" spans="1:10" hidden="1">
       <c r="A582">
         <v>3796</v>
       </c>
@@ -22585,7 +22591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="583" spans="1:10">
+    <row r="583" spans="1:10" hidden="1">
       <c r="A583">
         <v>3797</v>
       </c>
@@ -22619,7 +22625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="584" spans="1:10">
+    <row r="584" spans="1:10" hidden="1">
       <c r="A584">
         <v>3798</v>
       </c>
@@ -22653,7 +22659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="585" spans="1:10">
+    <row r="585" spans="1:10" hidden="1">
       <c r="A585">
         <v>3799</v>
       </c>
@@ -22721,7 +22727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="587" spans="1:10">
+    <row r="587" spans="1:10" hidden="1">
       <c r="A587">
         <v>3801</v>
       </c>
@@ -22755,7 +22761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="588" spans="1:10">
+    <row r="588" spans="1:10" hidden="1">
       <c r="A588">
         <v>3802</v>
       </c>
@@ -22789,7 +22795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="589" spans="1:10">
+    <row r="589" spans="1:10" hidden="1">
       <c r="A589">
         <v>3803</v>
       </c>
@@ -22823,7 +22829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="590" spans="1:10">
+    <row r="590" spans="1:10" hidden="1">
       <c r="A590">
         <v>3804</v>
       </c>
@@ -22857,7 +22863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="591" spans="1:10">
+    <row r="591" spans="1:10" hidden="1">
       <c r="A591">
         <v>3805</v>
       </c>
@@ -22891,7 +22897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="592" spans="1:10">
+    <row r="592" spans="1:10" hidden="1">
       <c r="A592">
         <v>3806</v>
       </c>
@@ -22925,7 +22931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="593" spans="1:10">
+    <row r="593" spans="1:10" hidden="1">
       <c r="A593">
         <v>3807</v>
       </c>
@@ -22959,7 +22965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="594" spans="1:10">
+    <row r="594" spans="1:10" hidden="1">
       <c r="A594">
         <v>3808</v>
       </c>
@@ -22993,7 +22999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="595" spans="1:10">
+    <row r="595" spans="1:10" hidden="1">
       <c r="A595">
         <v>3809</v>
       </c>
@@ -23027,7 +23033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="596" spans="1:10">
+    <row r="596" spans="1:10" hidden="1">
       <c r="A596">
         <v>3810</v>
       </c>
@@ -23061,7 +23067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="597" spans="1:10">
+    <row r="597" spans="1:10" hidden="1">
       <c r="A597">
         <v>3811</v>
       </c>
@@ -23095,7 +23101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="598" spans="1:10">
+    <row r="598" spans="1:10" hidden="1">
       <c r="A598">
         <v>3812</v>
       </c>
@@ -23129,7 +23135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="599" spans="1:10">
+    <row r="599" spans="1:10" hidden="1">
       <c r="A599">
         <v>3813</v>
       </c>
@@ -23163,7 +23169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="600" spans="1:10">
+    <row r="600" spans="1:10" hidden="1">
       <c r="A600">
         <v>3814</v>
       </c>
@@ -23197,7 +23203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="601" spans="1:10">
+    <row r="601" spans="1:10" hidden="1">
       <c r="A601">
         <v>3815</v>
       </c>
@@ -23231,7 +23237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="602" spans="1:10">
+    <row r="602" spans="1:10" hidden="1">
       <c r="A602">
         <v>3816</v>
       </c>
@@ -23265,7 +23271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="603" spans="1:10">
+    <row r="603" spans="1:10" hidden="1">
       <c r="A603">
         <v>3817</v>
       </c>
@@ -23299,7 +23305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="604" spans="1:10">
+    <row r="604" spans="1:10" hidden="1">
       <c r="A604">
         <v>3818</v>
       </c>
@@ -23333,7 +23339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="605" spans="1:10">
+    <row r="605" spans="1:10" hidden="1">
       <c r="A605">
         <v>3819</v>
       </c>
@@ -23367,7 +23373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="606" spans="1:10">
+    <row r="606" spans="1:10" hidden="1">
       <c r="A606">
         <v>3820</v>
       </c>
@@ -23401,7 +23407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="607" spans="1:10">
+    <row r="607" spans="1:10" hidden="1">
       <c r="A607">
         <v>3821</v>
       </c>
@@ -23435,7 +23441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="608" spans="1:10">
+    <row r="608" spans="1:10" hidden="1">
       <c r="A608">
         <v>3822</v>
       </c>
@@ -23469,7 +23475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="609" spans="1:10">
+    <row r="609" spans="1:10" hidden="1">
       <c r="A609">
         <v>3823</v>
       </c>
@@ -23503,7 +23509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="610" spans="1:10">
+    <row r="610" spans="1:10" hidden="1">
       <c r="A610">
         <v>3824</v>
       </c>
@@ -23537,7 +23543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="611" spans="1:10">
+    <row r="611" spans="1:10" hidden="1">
       <c r="A611">
         <v>3825</v>
       </c>
@@ -23571,7 +23577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="612" spans="1:10">
+    <row r="612" spans="1:10" hidden="1">
       <c r="A612">
         <v>3826</v>
       </c>
@@ -23605,7 +23611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="613" spans="1:10">
+    <row r="613" spans="1:10" hidden="1">
       <c r="A613">
         <v>3827</v>
       </c>
@@ -23639,7 +23645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="614" spans="1:10">
+    <row r="614" spans="1:10" hidden="1">
       <c r="A614">
         <v>3828</v>
       </c>
@@ -23673,7 +23679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="615" spans="1:10">
+    <row r="615" spans="1:10" hidden="1">
       <c r="A615">
         <v>3829</v>
       </c>
@@ -23707,7 +23713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="616" spans="1:10">
+    <row r="616" spans="1:10" hidden="1">
       <c r="A616">
         <v>3830</v>
       </c>
@@ -23741,7 +23747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="617" spans="1:10">
+    <row r="617" spans="1:10" hidden="1">
       <c r="A617">
         <v>3831</v>
       </c>
@@ -23775,7 +23781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="618" spans="1:10">
+    <row r="618" spans="1:10" hidden="1">
       <c r="A618">
         <v>3832</v>
       </c>
@@ -23809,7 +23815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="619" spans="1:10">
+    <row r="619" spans="1:10" hidden="1">
       <c r="A619">
         <v>3833</v>
       </c>
@@ -23843,7 +23849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="620" spans="1:10">
+    <row r="620" spans="1:10" hidden="1">
       <c r="A620">
         <v>3834</v>
       </c>
@@ -23877,7 +23883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="621" spans="1:10">
+    <row r="621" spans="1:10" hidden="1">
       <c r="A621">
         <v>3835</v>
       </c>
@@ -23911,7 +23917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="622" spans="1:10">
+    <row r="622" spans="1:10" hidden="1">
       <c r="A622">
         <v>3836</v>
       </c>
@@ -23945,7 +23951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="623" spans="1:10">
+    <row r="623" spans="1:10" hidden="1">
       <c r="A623">
         <v>3837</v>
       </c>
@@ -23979,7 +23985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="624" spans="1:10">
+    <row r="624" spans="1:10" hidden="1">
       <c r="A624">
         <v>3838</v>
       </c>
@@ -24013,7 +24019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="625" spans="1:10">
+    <row r="625" spans="1:10" hidden="1">
       <c r="A625">
         <v>3839</v>
       </c>
@@ -24047,7 +24053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="626" spans="1:10">
+    <row r="626" spans="1:10" hidden="1">
       <c r="A626">
         <v>3840</v>
       </c>
@@ -24081,7 +24087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="627" spans="1:10">
+    <row r="627" spans="1:10" hidden="1">
       <c r="A627">
         <v>3841</v>
       </c>
@@ -24115,7 +24121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="628" spans="1:10">
+    <row r="628" spans="1:10" hidden="1">
       <c r="A628">
         <v>3842</v>
       </c>
@@ -24149,7 +24155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="629" spans="1:10">
+    <row r="629" spans="1:10" hidden="1">
       <c r="A629">
         <v>3843</v>
       </c>
@@ -24183,7 +24189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="630" spans="1:10">
+    <row r="630" spans="1:10" hidden="1">
       <c r="A630">
         <v>3844</v>
       </c>
@@ -24217,7 +24223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="631" spans="1:10">
+    <row r="631" spans="1:10" hidden="1">
       <c r="A631">
         <v>3845</v>
       </c>
@@ -24251,7 +24257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="632" spans="1:10">
+    <row r="632" spans="1:10" hidden="1">
       <c r="A632">
         <v>3846</v>
       </c>
@@ -24285,7 +24291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="633" spans="1:10">
+    <row r="633" spans="1:10" hidden="1">
       <c r="A633">
         <v>3847</v>
       </c>
@@ -24319,7 +24325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="634" spans="1:10">
+    <row r="634" spans="1:10" hidden="1">
       <c r="A634">
         <v>3848</v>
       </c>
@@ -24353,7 +24359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="635" spans="1:10">
+    <row r="635" spans="1:10" hidden="1">
       <c r="A635">
         <v>3849</v>
       </c>
@@ -24387,7 +24393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="636" spans="1:10">
+    <row r="636" spans="1:10" hidden="1">
       <c r="A636">
         <v>3850</v>
       </c>
@@ -24421,7 +24427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="637" spans="1:10">
+    <row r="637" spans="1:10" hidden="1">
       <c r="A637">
         <v>3851</v>
       </c>
@@ -24455,7 +24461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="638" spans="1:10">
+    <row r="638" spans="1:10" hidden="1">
       <c r="A638">
         <v>3852</v>
       </c>
@@ -24489,7 +24495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="639" spans="1:10">
+    <row r="639" spans="1:10" hidden="1">
       <c r="A639">
         <v>3853</v>
       </c>
@@ -24523,7 +24529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="640" spans="1:10">
+    <row r="640" spans="1:10" hidden="1">
       <c r="A640">
         <v>3854</v>
       </c>
@@ -24557,7 +24563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="641" spans="1:10">
+    <row r="641" spans="1:10" hidden="1">
       <c r="A641">
         <v>3855</v>
       </c>
@@ -24591,7 +24597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="642" spans="1:10">
+    <row r="642" spans="1:10" hidden="1">
       <c r="A642">
         <v>3856</v>
       </c>
@@ -24625,7 +24631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="643" spans="1:10">
+    <row r="643" spans="1:10" hidden="1">
       <c r="A643">
         <v>3857</v>
       </c>
@@ -24659,7 +24665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="644" spans="1:10">
+    <row r="644" spans="1:10" hidden="1">
       <c r="A644">
         <v>3858</v>
       </c>
@@ -24693,7 +24699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="645" spans="1:10">
+    <row r="645" spans="1:10" hidden="1">
       <c r="A645">
         <v>3859</v>
       </c>
@@ -24727,7 +24733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="646" spans="1:10">
+    <row r="646" spans="1:10" hidden="1">
       <c r="A646">
         <v>3860</v>
       </c>
@@ -24761,7 +24767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="647" spans="1:10">
+    <row r="647" spans="1:10" hidden="1">
       <c r="A647">
         <v>3861</v>
       </c>
@@ -24795,7 +24801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="648" spans="1:10">
+    <row r="648" spans="1:10" hidden="1">
       <c r="A648">
         <v>3862</v>
       </c>
@@ -24829,7 +24835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="649" spans="1:10">
+    <row r="649" spans="1:10" hidden="1">
       <c r="A649">
         <v>3863</v>
       </c>
@@ -24863,7 +24869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="650" spans="1:10">
+    <row r="650" spans="1:10" hidden="1">
       <c r="A650">
         <v>3864</v>
       </c>
@@ -24897,7 +24903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="651" spans="1:10">
+    <row r="651" spans="1:10" hidden="1">
       <c r="A651">
         <v>3865</v>
       </c>
@@ -24931,7 +24937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="652" spans="1:10">
+    <row r="652" spans="1:10" hidden="1">
       <c r="A652">
         <v>3866</v>
       </c>
@@ -24965,7 +24971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="653" spans="1:10">
+    <row r="653" spans="1:10" hidden="1">
       <c r="A653">
         <v>3867</v>
       </c>
@@ -24999,7 +25005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="654" spans="1:10">
+    <row r="654" spans="1:10" hidden="1">
       <c r="A654">
         <v>3868</v>
       </c>
@@ -25067,7 +25073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="656" spans="1:10">
+    <row r="656" spans="1:10" hidden="1">
       <c r="A656">
         <v>3870</v>
       </c>
@@ -25101,7 +25107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="657" spans="1:10">
+    <row r="657" spans="1:10" hidden="1">
       <c r="A657">
         <v>3871</v>
       </c>
@@ -25135,7 +25141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="658" spans="1:10">
+    <row r="658" spans="1:10" hidden="1">
       <c r="A658">
         <v>3872</v>
       </c>
